--- a/blanco-meta/telegrams/ApiPutTelegram.xlsx
+++ b/blanco-meta/telegrams/ApiPutTelegram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/nanosys/SumidaMeta/meta/common/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD131094-65DD-AF44-86BF-DF03D4102D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD90B857-C7C2-124A-9893-19BFED3964E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1460" windowWidth="24320" windowHeight="14120" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="6380" windowWidth="24320" windowHeight="14120" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>クラス名</t>
   </si>
@@ -147,11 +147,18 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>ApiPutTelegram</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>ApiTelegram</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>総称型</t>
+  </si>
+  <si>
+    <t>名前空間</t>
   </si>
   <si>
     <t>バリューオブジェクト定義書 設定シート</t>
@@ -219,6 +226,124 @@
     <t>○</t>
   </si>
   <si>
+    <t>デフォルト値の変形</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>blanco\restgenerator\valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\blanco\restgenerator\valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import文の自動生成</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/* TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。 */</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">イッカツ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>配置ディレクトリ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アノテーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイナル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dataクラス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>総称型</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソウショウガタ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※ クラスのGenericを定義するために使用します。</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">テイギスル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>/* kotlin 独自 */</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>抽象クラス</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウショウクラス </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アノテーション(Kt)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>@Introspected</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>バリューオブジェクト定義(php)・インポート</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -234,134 +359,12 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>デフォルト値の変形</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>blanco\restgenerator\valueobject</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>blanco.restgenerator.valueobject</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>\blanco\restgenerator\valueobject</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>import文の自動生成</t>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ブｎ </t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t xml:space="preserve">ジドウセイセイ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>/* TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。 */</t>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">ドクジ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">イッカツ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">セイセイ </t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t xml:space="preserve">ブｎ </t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t xml:space="preserve">ジドウセイセイ </t>
-    </rPh>
+    <t>io.micronaut.core.annotation.Introspected</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%%</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>配置ディレクトリ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ハイチ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>アノテーション</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ファイナル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>dataクラス</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>総称型</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ソウショウガタ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>※ クラスのGenericを定義するために使用します。</t>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">テイギスル </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シヨウシマス。 </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>/* kotlin 独自 */</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ドクジ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>抽象クラス</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">チュウショウクラス </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アノテーション(Kt)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>@Introspected</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>io.micronaut.core.annotation.Introspected</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ApiPutTelegram</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -716,32 +719,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -794,6 +771,32 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,6 +869,32 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -953,38 +982,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1031,23 +1034,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1078,38 +1083,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,11 +1097,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1141,16 +1146,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{2200157D-EA8C-E44F-B685-019F43FBD97A}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{471BFD23-2DD8-514F-AC96-8DD91CB37123}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1561,7 +1566,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1608,7 +1613,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
@@ -1620,7 +1625,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="11"/>
@@ -1632,57 +1637,57 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="11"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1">
-      <c r="A9" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="78"/>
+      <c r="A9" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="71" t="s">
+    </row>
+    <row r="11" spans="1:12" s="35" customFormat="1">
+      <c r="A11" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="35" customFormat="1">
-      <c r="A11" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:12" s="35" customFormat="1">
-      <c r="A12" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="A12" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
@@ -1713,12 +1718,12 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" s="35" customFormat="1">
-      <c r="A15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52" t="s">
-        <v>51</v>
+      <c r="A15" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1731,13 +1736,13 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" s="35" customFormat="1">
-      <c r="A16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -1749,11 +1754,11 @@
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" s="35" customFormat="1">
-      <c r="A17" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -1765,11 +1770,11 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" s="35" customFormat="1">
-      <c r="A18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -1781,23 +1786,23 @@
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" s="35" customFormat="1">
-      <c r="A19" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:12" s="35" customFormat="1">
-      <c r="A20" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
-        <v>31</v>
+      <c r="A20" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -1805,26 +1810,26 @@
       <c r="G20"/>
     </row>
     <row r="21" spans="1:12" s="35" customFormat="1">
-      <c r="A21" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:12" s="35" customFormat="1">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -1863,7 +1868,7 @@
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -1874,28 +1879,36 @@
       <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="39"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
@@ -1908,66 +1921,66 @@
     </row>
     <row r="29" spans="1:12" s="35" customFormat="1">
       <c r="A29" s="32" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="53"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:12" s="35" customFormat="1">
-      <c r="A30" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="A30" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="56"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
+      <c r="G30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:12" s="35" customFormat="1">
-      <c r="A31" s="58">
+      <c r="A31" s="71">
         <v>1</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="B31" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:12" s="35" customFormat="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="62"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="75"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" s="35" customFormat="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="62"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="75"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -1997,37 +2010,37 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="82" t="s">
+      <c r="D36" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="82" t="s">
+      <c r="F36" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="82"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="18"/>
       <c r="I37" s="30"/>
       <c r="J37" s="15"/>
@@ -2228,25 +2241,25 @@
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{20F76D9A-1D6A-DB46-A978-5AC349D62F68}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{0FD7C1B7-66A1-2244-906B-24F066B506B0}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{22547FF8-4866-F241-A2A3-43FBCB8962CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{EBA0E580-315E-BB4B-98E0-71746EB885D5}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{7CA6E1B1-51A8-4D4F-83FA-1FAE66BAB3C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{829DE9AA-2F77-6C47-8579-776CBAFE3157}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{E077BCDF-034B-8F4C-B3D5-A9EBA2509C79}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{032937FF-344C-FC42-8476-00F08E8E69E1}">
       <formula1>accessScope2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{967DA47C-F651-D14C-B926-A5D1393BA619}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{808C9179-3D39-C947-B4B4-B0E14C4E1709}">
       <formula1>isAbstract</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{48C68485-6DC9-F54D-9B78-6E2F03F197AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{C9D276CA-AD89-F540-A248-52255620165C}">
       <formula1>isFinal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{B6144759-8239-DC43-87BA-6AB2B6968060}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{83304A18-A395-DC43-8EEE-1DEC9AA38474}">
       <formula1>isData</formula1>
     </dataValidation>
   </dataValidations>
@@ -2259,119 +2272,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8803EA4-85DD-FF41-B76C-34FC5D9818A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FA4794-7312-7349-A01F-94352D2D8D62}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="43" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="261" width="8.83203125" style="43" customWidth="1"/>
-    <col min="262" max="16384" width="10.83203125" style="43"/>
+    <col min="1" max="3" width="8.83203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="261" width="8.83203125" style="45" customWidth="1"/>
+    <col min="262" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19">
-      <c r="A1" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="42"/>
+      <c r="A1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="44"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="44" t="s">
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4" s="47"/>
+      <c r="D4" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="B4" s="45"/>
-      <c r="D4" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="P4" s="46"/>
+      <c r="H4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="P4" s="48"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="48" t="s">
-        <v>28</v>
+      <c r="B5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="F5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
